--- a/bbb_4_push/lcsc/BOM_BBB_4v1_Push_Fit_other_parts.xlsx
+++ b/bbb_4_push/lcsc/BOM_BBB_4v1_Push_Fit_other_parts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavindouglass/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavindouglass/Documents/GitHub/Pixel-Controllers/bbb_4_push/lcsc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C20B2AFF-9483-7140-B07F-776538FADB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC1FF7F-CE47-0545-A441-BF290DC7C917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12380" yWindow="6400" windowWidth="27240" windowHeight="16440" xr2:uid="{764CDA28-7B2A-5540-A02C-DE51B6ADC75C}"/>
   </bookViews>
@@ -33,18 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
-  <si>
-    <t>C440858</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
   <si>
     <t>LCSC</t>
-  </si>
-  <si>
-    <t>KF2EDGK-3.81-2P</t>
-  </si>
-  <si>
-    <t>Cixi Kefa Elec KF2EDGK-3.81-2P</t>
   </si>
   <si>
     <t>C72124</t>
@@ -624,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A34028-ADE7-1D4A-AFA0-6514FA3F3487}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,398 +631,381 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D7">
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10">
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D12">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D15">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
         <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>20</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
